--- a/Fasttrack/data/testscript.xlsx
+++ b/Fasttrack/data/testscript.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\AutomationProject\Fasttrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7549F600-65E8-449C-899E-C2CE47A8E6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0C0A7114-AF89-45C9-86F6-193F56D7A7DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="createcampaign" sheetId="1" r:id="rId1"/>
+    <sheet name="priForecast" sheetId="2" r:id="rId2"/>
+    <sheet name="priProducts" sheetId="3" r:id="rId3"/>
+    <sheet name="PriContacts" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>CampaignName</t>
   </si>
@@ -43,13 +45,133 @@
   </si>
   <si>
     <t>01/02/2025</t>
+  </si>
+  <si>
+    <t>forecastQuota1</t>
+  </si>
+  <si>
+    <t>forecastQuota2</t>
+  </si>
+  <si>
+    <t>forecastQuota3</t>
+  </si>
+  <si>
+    <t>commitAmount1</t>
+  </si>
+  <si>
+    <t>commitAmount2</t>
+  </si>
+  <si>
+    <t>commitAmount3</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>8476</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>7057</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Sales start date</t>
+  </si>
+  <si>
+    <t>Sales end date</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>12/30/2008</t>
+  </si>
+  <si>
+    <t>1/27/2017</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>MailingStreet</t>
+  </si>
+  <si>
+    <t>MailingCity</t>
+  </si>
+  <si>
+    <t>MailingCountry</t>
+  </si>
+  <si>
+    <t>MailingState</t>
+  </si>
+  <si>
+    <t>MailingZip</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Nagaraj</t>
+  </si>
+  <si>
+    <t>Priya A Nagaraj</t>
+  </si>
+  <si>
+    <t>priyanagraj2@gmail.com</t>
+  </si>
+  <si>
+    <t>06/22/1994</t>
+  </si>
+  <si>
+    <t>#3048 1st cross 2nd main</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>9988055694</t>
+  </si>
+  <si>
+    <t>560085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,20 +535,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88765DBE-6D54-4607-AE5E-2BD3D2292824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -441,4 +574,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>